--- a/Definitions/4_Definitions_Algorithms.xlsx
+++ b/Definitions/4_Definitions_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Tab Name</t>
   </si>
@@ -51,45 +51,12 @@
     <t>http://www.geeksforgeeks.org/</t>
   </si>
   <si>
-    <t>Vocabulary for design and analysis of algorithms</t>
-  </si>
-  <si>
-    <t>Divide and conquer algorithm design paradigm</t>
-  </si>
-  <si>
-    <t>Randomization in algorithm design</t>
-  </si>
-  <si>
-    <t>Primitives for reasoning about graphs</t>
-  </si>
-  <si>
-    <t>Use and implementation of data strutctures</t>
-  </si>
-  <si>
     <t>Books</t>
   </si>
   <si>
     <t>Aho,Hopcroft and Ullman The Design and Analysis of Computer Algorithms,1974</t>
   </si>
   <si>
-    <t>Greedy Algorithm Design Paradigm</t>
-  </si>
-  <si>
-    <t>Dynamic Programming algorithm Design Paradigm</t>
-  </si>
-  <si>
-    <t>NP Complete Problems</t>
-  </si>
-  <si>
-    <t>Example application/implementations:
-Genome sequence alignment, shortest path, communcation networks</t>
-  </si>
-  <si>
-    <t>Example application/implementations:
-1. Minimum Spanning Trees
-2. Scheduling</t>
-  </si>
-  <si>
     <t>Mathematices for computer science</t>
   </si>
   <si>
@@ -124,13 +91,19 @@
   </si>
   <si>
     <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +127,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +156,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -229,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -254,6 +248,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,67 +573,37 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45">
-      <c r="A7" t="s">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Books!A1" display="Books"/>
+    <hyperlink ref="A3" location="Sorting!A1" display="Sorting"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,108 +613,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="http://www.geeksforgeeks.org/amazon-interview-set-27/"/>
-    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A11" r:id="rId1" display="http://www.geeksforgeeks.org/amazon-interview-set-27/"/>
+    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="B1" location="Books!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -751,10 +732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,40 +746,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Sorting!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>